--- a/common/src/main/webapp/imports/export-赵宇-38.xlsx
+++ b/common/src/main/webapp/imports/export-赵宇-38.xlsx
@@ -1380,10 +1380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1405,14 +1405,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,96 +1539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1539,21 +1554,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1564,7 +1564,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,13 +1612,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,67 +1720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,85 +1738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,26 +1755,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1789,6 +1769,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,9 +1832,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,170 +1855,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2366,7 +2366,7 @@
   <dimension ref="C1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C$1:C$1048576"/>
+      <selection activeCell="F25" sqref="C1:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -2417,7 +2417,7 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2426,13 +2426,13 @@
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -2441,7 +2441,7 @@
       <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2454,12 +2454,15 @@
       <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="2"/>
+      <c r="AA1" s="3"/>
       <c r="AB1" s="4" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2498,7 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2504,13 +2507,13 @@
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -2532,12 +2535,15 @@
       <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="3"/>
       <c r="AB2" s="4" t="s">
         <v>29</v>
       </c>
@@ -2573,7 +2579,7 @@
       <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2582,13 +2588,13 @@
       <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -2610,12 +2616,15 @@
       <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="4" t="s">
         <v>29</v>
       </c>
@@ -2651,7 +2660,7 @@
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2660,13 +2669,13 @@
       <c r="J4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -2688,12 +2697,15 @@
       <c r="T4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +2741,7 @@
       <c r="G5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2738,13 +2750,13 @@
       <c r="J5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2766,12 +2778,15 @@
       <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="3"/>
       <c r="AB5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2807,7 +2822,7 @@
       <c r="G6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2816,13 +2831,13 @@
       <c r="J6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2849,12 +2864,12 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +2905,7 @@
       <c r="G7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2899,13 +2914,13 @@
       <c r="J7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -2927,12 +2942,15 @@
       <c r="T7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="3"/>
       <c r="AB7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2968,7 +2986,7 @@
       <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2977,13 +2995,13 @@
       <c r="J8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -3008,12 +3026,12 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="3"/>
       <c r="AB8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3067,7 @@
       <c r="G9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -3058,13 +3076,13 @@
       <c r="J9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3086,12 +3104,15 @@
       <c r="T9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="3"/>
       <c r="AB9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3148,7 @@
       <c r="G10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -3136,13 +3157,13 @@
       <c r="J10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -3164,12 +3185,15 @@
       <c r="T10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2" t="s">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="4" t="s">
         <v>29</v>
       </c>
@@ -3205,7 +3229,7 @@
       <c r="G11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -3214,13 +3238,13 @@
       <c r="J11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -3242,12 +3266,15 @@
       <c r="T11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="4" t="s">
         <v>29</v>
       </c>
@@ -3283,7 +3310,7 @@
       <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -3292,13 +3319,13 @@
       <c r="J12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -3320,12 +3347,15 @@
       <c r="T12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3361,7 +3391,7 @@
       <c r="G13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>148</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -3370,13 +3400,13 @@
       <c r="J13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>152</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -3403,14 +3433,14 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="s">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="4" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3476,7 @@
       <c r="G14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3455,13 +3485,13 @@
       <c r="J14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>169</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -3483,12 +3513,15 @@
       <c r="T14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="3"/>
       <c r="AB14" s="4" t="s">
         <v>29</v>
       </c>
@@ -3524,7 +3557,7 @@
       <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>175</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -3533,13 +3566,13 @@
       <c r="J15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>179</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -3561,12 +3594,15 @@
       <c r="T15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="4" t="s">
         <v>29</v>
       </c>
@@ -3602,7 +3638,7 @@
       <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3611,13 +3647,13 @@
       <c r="J16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3639,12 +3675,15 @@
       <c r="T16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="4" t="s">
         <v>29</v>
       </c>
@@ -3680,7 +3719,7 @@
       <c r="G17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>194</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3689,13 +3728,13 @@
       <c r="J17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3720,12 +3759,12 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2" t="s">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
       <c r="AB17" s="4" t="s">
         <v>29</v>
       </c>
@@ -3761,7 +3800,7 @@
       <c r="G18" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>206</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3770,13 +3809,13 @@
       <c r="J18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>209</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -3797,12 +3836,12 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="3"/>
       <c r="AB18" s="4" t="s">
         <v>211</v>
       </c>
@@ -3836,7 +3875,7 @@
       <c r="G19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>215</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -3845,13 +3884,13 @@
       <c r="J19" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -3871,12 +3910,15 @@
         <v>219</v>
       </c>
       <c r="T19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2" t="s">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="3"/>
       <c r="AB19" s="4" t="s">
         <v>29</v>
       </c>
@@ -3910,7 +3952,7 @@
       <c r="G20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>224</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -3919,13 +3961,13 @@
       <c r="J20" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3947,12 +3989,15 @@
       <c r="T20" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="3"/>
       <c r="AB20" s="4" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +4031,7 @@
         <v>232</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>233</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -3995,13 +4040,13 @@
       <c r="J21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4026,12 +4071,12 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="3"/>
       <c r="AB21" s="4" t="s">
         <v>29</v>
       </c>
@@ -4067,7 +4112,7 @@
       <c r="G22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>242</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -4076,13 +4121,13 @@
       <c r="J22" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4104,12 +4149,15 @@
       <c r="T22" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="3"/>
       <c r="AB22" s="4" t="s">
         <v>29</v>
       </c>
@@ -4145,7 +4193,7 @@
       <c r="G23" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>253</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -4154,13 +4202,13 @@
       <c r="J23" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>258</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4187,12 +4235,12 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2" t="s">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="3"/>
       <c r="AB23" s="4" t="s">
         <v>29</v>
       </c>
@@ -4228,7 +4276,7 @@
       <c r="G24" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>266</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -4237,13 +4285,13 @@
       <c r="J24" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>270</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4268,12 +4316,12 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2" t="s">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="3"/>
       <c r="AB24" s="4" t="s">
         <v>29</v>
       </c>
@@ -4309,7 +4357,7 @@
       <c r="G25" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>277</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -4318,13 +4366,13 @@
       <c r="J25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4347,12 +4395,12 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2" t="s">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="3"/>
       <c r="AB25" s="4" t="s">
         <v>29</v>
       </c>
@@ -4386,7 +4434,7 @@
         <v>285</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>286</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -4395,13 +4443,13 @@
       <c r="J26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="2" t="s">
         <v>290</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4426,12 +4474,12 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="4" t="s">
         <v>29</v>
       </c>
@@ -4467,7 +4515,7 @@
       <c r="G27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>298</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -4476,13 +4524,13 @@
       <c r="J27" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4504,12 +4552,15 @@
       <c r="T27" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2" t="s">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="3"/>
       <c r="AB27" s="4" t="s">
         <v>303</v>
       </c>
@@ -4545,7 +4596,7 @@
       <c r="G28" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>310</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -4554,13 +4605,13 @@
       <c r="J28" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="2" t="s">
         <v>314</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4580,12 +4631,15 @@
       <c r="T28" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2" t="s">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA28" s="2"/>
+      <c r="AA28" s="3"/>
       <c r="AB28" s="4" t="s">
         <v>211</v>
       </c>
@@ -4621,7 +4675,7 @@
       <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>322</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -4630,13 +4684,13 @@
       <c r="J29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="2" t="s">
         <v>325</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4658,12 +4712,15 @@
       <c r="T29" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2" t="s">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA29" s="2"/>
+      <c r="AA29" s="3"/>
       <c r="AB29" s="4" t="s">
         <v>29</v>
       </c>
@@ -4699,7 +4756,7 @@
       <c r="G30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>332</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -4708,13 +4765,13 @@
       <c r="J30" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>336</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4745,12 +4802,12 @@
       <c r="W30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA30" s="2"/>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="4" t="s">
         <v>29</v>
       </c>
@@ -4786,7 +4843,7 @@
       <c r="G31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>345</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4795,13 +4852,13 @@
       <c r="J31" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>349</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -4828,12 +4885,12 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA31" s="2"/>
+      <c r="AA31" s="3"/>
       <c r="AB31" s="4" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4926,7 @@
       <c r="G32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>358</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -4878,13 +4935,13 @@
       <c r="J32" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="2" t="s">
         <v>362</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4909,12 +4966,12 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2" t="s">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA32" s="2"/>
+      <c r="AA32" s="3"/>
       <c r="AB32" s="4" t="s">
         <v>29</v>
       </c>
@@ -4950,7 +5007,7 @@
       <c r="G33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -4959,13 +5016,13 @@
       <c r="J33" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="2" t="s">
         <v>373</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4994,12 +5051,12 @@
       <c r="W33" s="2">
         <v>29878566</v>
       </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA33" s="2"/>
+      <c r="AA33" s="3"/>
       <c r="AB33" s="4" t="s">
         <v>29</v>
       </c>
@@ -5035,7 +5092,7 @@
       <c r="G34" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>382</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -5044,13 +5101,13 @@
       <c r="J34" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>386</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5073,12 +5130,12 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA34" s="2"/>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="4" t="s">
         <v>211</v>
       </c>
@@ -5114,7 +5171,7 @@
       <c r="G35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>393</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -5123,13 +5180,13 @@
       <c r="J35" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -5151,12 +5208,15 @@
       <c r="T35" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2" t="s">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA35" s="2"/>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="4" t="s">
         <v>29</v>
       </c>
@@ -5190,7 +5250,7 @@
       <c r="G36" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>403</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5199,13 +5259,13 @@
       <c r="J36" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5227,12 +5287,15 @@
       <c r="T36" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2" t="s">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA36" s="2"/>
+      <c r="AA36" s="3"/>
       <c r="AB36" s="4" t="s">
         <v>29</v>
       </c>
@@ -5268,7 +5331,7 @@
       <c r="G37" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>413</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -5277,13 +5340,13 @@
       <c r="J37" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>417</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5305,12 +5368,15 @@
       <c r="T37" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2" t="s">
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA37" s="2"/>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="4" t="s">
         <v>15</v>
       </c>
@@ -5346,7 +5412,7 @@
       <c r="G38" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>424</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -5355,13 +5421,13 @@
       <c r="J38" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="2" t="s">
         <v>428</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5381,12 +5447,15 @@
       <c r="T38" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2" t="s">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA38" s="2"/>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="4" t="s">
         <v>29</v>
       </c>
